--- a/data/gender.xlsx
+++ b/data/gender.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="HUM - Tenure ineligible" sheetId="1" r:id="rId1"/>
-    <sheet name="HUM - Tenure eligible" sheetId="2" r:id="rId2"/>
-    <sheet name="HUM - Tenured" sheetId="3" r:id="rId3"/>
-    <sheet name="NS - Tenure ineligible" sheetId="4" r:id="rId4"/>
-    <sheet name="NS - Tenure eligible" sheetId="5" r:id="rId5"/>
-    <sheet name="NS - Tenured" sheetId="6" r:id="rId6"/>
-    <sheet name="SS - Tenure ineligible" sheetId="7" r:id="rId7"/>
-    <sheet name="SS - Tenure eligible" sheetId="8" r:id="rId8"/>
-    <sheet name="SS - Tenured" sheetId="9" r:id="rId9"/>
+    <sheet name="Humanities, Non-tenured" sheetId="1" r:id="rId1"/>
+    <sheet name="Humanities, Tenure-track" sheetId="2" r:id="rId2"/>
+    <sheet name="Humanities, Tenured" sheetId="3" r:id="rId3"/>
+    <sheet name="Natural Sciences, Non-tenured" sheetId="4" r:id="rId4"/>
+    <sheet name="Natural Sciences, Tenure-track" sheetId="5" r:id="rId5"/>
+    <sheet name="Natural Sciences, Tenured" sheetId="6" r:id="rId6"/>
+    <sheet name="Social Sciences, Non-tenured" sheetId="7" r:id="rId7"/>
+    <sheet name="Social Sciences, Tenure-track" sheetId="8" r:id="rId8"/>
+    <sheet name="Social Sciences, Tenured" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/data/gender.xlsx
+++ b/data/gender.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Humanities, Non-tenured" sheetId="1" r:id="rId1"/>
-    <sheet name="Humanities, Tenure-track" sheetId="2" r:id="rId2"/>
-    <sheet name="Humanities, Tenured" sheetId="3" r:id="rId3"/>
-    <sheet name="Natural Sciences, Non-tenured" sheetId="4" r:id="rId4"/>
-    <sheet name="Natural Sciences, Tenure-track" sheetId="5" r:id="rId5"/>
-    <sheet name="Natural Sciences, Tenured" sheetId="6" r:id="rId6"/>
-    <sheet name="Social Sciences, Non-tenured" sheetId="7" r:id="rId7"/>
-    <sheet name="Social Sciences, Tenure-track" sheetId="8" r:id="rId8"/>
-    <sheet name="Social Sciences, Tenured" sheetId="9" r:id="rId9"/>
+    <sheet name="HUM-EL" sheetId="1" r:id="rId1"/>
+    <sheet name="HUM-NE" sheetId="2" r:id="rId2"/>
+    <sheet name="HUM-TE" sheetId="3" r:id="rId3"/>
+    <sheet name="NAT-EL" sheetId="4" r:id="rId4"/>
+    <sheet name="NAT-NE" sheetId="5" r:id="rId5"/>
+    <sheet name="NAT-TE" sheetId="6" r:id="rId6"/>
+    <sheet name="SOC-EL" sheetId="7" r:id="rId7"/>
+    <sheet name="SOC-NE" sheetId="8" r:id="rId8"/>
+    <sheet name="SOC-TE" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -428,16 +428,16 @@
         <v>2007</v>
       </c>
       <c r="B2">
-        <v>0.6556999999999999</v>
+        <v>0.5059</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="E2">
-        <v>0.3443</v>
+        <v>0.4941</v>
       </c>
       <c r="F2">
         <v>42</v>
@@ -448,19 +448,19 @@
         <v>2008</v>
       </c>
       <c r="B3">
-        <v>0.64</v>
+        <v>0.4684</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="E3">
-        <v>0.36</v>
+        <v>0.5316</v>
       </c>
       <c r="F3">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -468,19 +468,19 @@
         <v>2009</v>
       </c>
       <c r="B4">
-        <v>0.5982</v>
+        <v>0.4839</v>
       </c>
       <c r="C4">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="E4">
-        <v>0.4018</v>
+        <v>0.5161</v>
       </c>
       <c r="F4">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -488,19 +488,19 @@
         <v>2010</v>
       </c>
       <c r="B5">
-        <v>0.6471</v>
+        <v>0.4828</v>
       </c>
       <c r="C5">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>0.3529</v>
+        <v>0.5172</v>
       </c>
       <c r="F5">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -508,19 +508,19 @@
         <v>2011</v>
       </c>
       <c r="B6">
-        <v>0.6405999999999999</v>
+        <v>0.4727</v>
       </c>
       <c r="C6">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>0.3594</v>
+        <v>0.5273</v>
       </c>
       <c r="F6">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -528,19 +528,19 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>0.635</v>
+        <v>0.4259</v>
       </c>
       <c r="C7">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="E7">
-        <v>0.365</v>
+        <v>0.5741000000000001</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -548,19 +548,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>0.6395</v>
+        <v>0.4118</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E8">
-        <v>0.3605</v>
+        <v>0.5881999999999999</v>
       </c>
       <c r="F8">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -568,19 +568,19 @@
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>0.6481</v>
+        <v>0.3636</v>
       </c>
       <c r="C9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="E9">
-        <v>0.3519</v>
+        <v>0.6364</v>
       </c>
       <c r="F9">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -588,19 +588,19 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>0.6074000000000001</v>
+        <v>0.4286</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="E10">
-        <v>0.3926</v>
+        <v>0.5714</v>
       </c>
       <c r="F10">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -608,19 +608,19 @@
         <v>2016</v>
       </c>
       <c r="B11">
-        <v>0.5523</v>
+        <v>0.4528</v>
       </c>
       <c r="C11">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="E11">
-        <v>0.4477</v>
+        <v>0.5472</v>
       </c>
       <c r="F11">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -628,19 +628,19 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>0.6153999999999999</v>
+        <v>0.4561</v>
       </c>
       <c r="C12">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="E12">
-        <v>0.3846</v>
+        <v>0.5439000000000001</v>
       </c>
       <c r="F12">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -681,16 +681,16 @@
         <v>2007</v>
       </c>
       <c r="B2">
-        <v>0.5059</v>
+        <v>0.6556999999999999</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>0.4941</v>
+        <v>0.3443</v>
       </c>
       <c r="F2">
         <v>42</v>
@@ -701,19 +701,19 @@
         <v>2008</v>
       </c>
       <c r="B3">
-        <v>0.4684</v>
+        <v>0.64</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="E3">
-        <v>0.5316</v>
+        <v>0.36</v>
       </c>
       <c r="F3">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -721,19 +721,19 @@
         <v>2009</v>
       </c>
       <c r="B4">
-        <v>0.4839</v>
+        <v>0.5982</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E4">
-        <v>0.5161</v>
+        <v>0.4018</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -741,19 +741,19 @@
         <v>2010</v>
       </c>
       <c r="B5">
-        <v>0.4828</v>
+        <v>0.6471</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="E5">
-        <v>0.5172</v>
+        <v>0.3529</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -761,19 +761,19 @@
         <v>2011</v>
       </c>
       <c r="B6">
-        <v>0.4727</v>
+        <v>0.6405999999999999</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="E6">
-        <v>0.5273</v>
+        <v>0.3594</v>
       </c>
       <c r="F6">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -781,19 +781,19 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>0.4259</v>
+        <v>0.635</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="E7">
-        <v>0.5741000000000001</v>
+        <v>0.365</v>
       </c>
       <c r="F7">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -801,19 +801,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>0.4118</v>
+        <v>0.6395</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="E8">
-        <v>0.5881999999999999</v>
+        <v>0.3605</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -821,19 +821,19 @@
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>0.3636</v>
+        <v>0.6481</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="E9">
-        <v>0.6364</v>
+        <v>0.3519</v>
       </c>
       <c r="F9">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -841,19 +841,19 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>0.4286</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D10">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="E10">
-        <v>0.5714</v>
+        <v>0.3926</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -861,19 +861,19 @@
         <v>2016</v>
       </c>
       <c r="B11">
-        <v>0.4528</v>
+        <v>0.5523</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="E11">
-        <v>0.5472</v>
+        <v>0.4477</v>
       </c>
       <c r="F11">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -881,19 +881,19 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>0.4561</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D12">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="E12">
-        <v>0.5439000000000001</v>
+        <v>0.3846</v>
       </c>
       <c r="F12">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1187,19 +1187,19 @@
         <v>2007</v>
       </c>
       <c r="B2">
-        <v>0.3636</v>
+        <v>0.2833</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>0.6364</v>
+        <v>0.7167</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1207,19 +1207,19 @@
         <v>2008</v>
       </c>
       <c r="B3">
-        <v>0.3684</v>
+        <v>0.2656</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E3">
-        <v>0.6316000000000001</v>
+        <v>0.7344000000000001</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1227,19 +1227,19 @@
         <v>2009</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.2969</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0.7030999999999999</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1247,19 +1247,19 @@
         <v>2010</v>
       </c>
       <c r="B5">
-        <v>0.5217000000000001</v>
+        <v>0.2985</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E5">
-        <v>0.4783</v>
+        <v>0.7015</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1267,19 +1267,19 @@
         <v>2011</v>
       </c>
       <c r="B6">
-        <v>0.6563</v>
+        <v>0.3239</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E6">
-        <v>0.3438</v>
+        <v>0.6761</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1287,19 +1287,19 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>0.5676</v>
+        <v>0.2609</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E7">
-        <v>0.4324</v>
+        <v>0.7391</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1307,19 +1307,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>0.5946</v>
+        <v>0.2113</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E8">
-        <v>0.4054</v>
+        <v>0.7887</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1327,19 +1327,19 @@
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>0.5833</v>
+        <v>0.1452</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E9">
-        <v>0.4167</v>
+        <v>0.8548</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1347,19 +1347,19 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>0.5405</v>
+        <v>0.1852</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E10">
-        <v>0.4595</v>
+        <v>0.8148</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1367,19 +1367,19 @@
         <v>2016</v>
       </c>
       <c r="B11">
-        <v>0.5192</v>
+        <v>0.2353</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>0.4808</v>
+        <v>0.7647</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1387,19 +1387,19 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>0.5833</v>
+        <v>0.22</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>0.4167</v>
+        <v>0.78</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1440,19 +1440,19 @@
         <v>2007</v>
       </c>
       <c r="B2">
-        <v>0.2833</v>
+        <v>0.3636</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>0.7167</v>
+        <v>0.6364</v>
       </c>
       <c r="F2">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1460,19 +1460,19 @@
         <v>2008</v>
       </c>
       <c r="B3">
-        <v>0.2656</v>
+        <v>0.3684</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>0.7344000000000001</v>
+        <v>0.6316000000000001</v>
       </c>
       <c r="F3">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1480,19 +1480,19 @@
         <v>2009</v>
       </c>
       <c r="B4">
-        <v>0.2969</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>0.7030999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1500,19 +1500,19 @@
         <v>2010</v>
       </c>
       <c r="B5">
-        <v>0.2985</v>
+        <v>0.5217000000000001</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>0.7015</v>
+        <v>0.4783</v>
       </c>
       <c r="F5">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1520,19 +1520,19 @@
         <v>2011</v>
       </c>
       <c r="B6">
-        <v>0.3239</v>
+        <v>0.6563</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>0.6761</v>
+        <v>0.3438</v>
       </c>
       <c r="F6">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1540,19 +1540,19 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>0.2609</v>
+        <v>0.5676</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>0.7391</v>
+        <v>0.4324</v>
       </c>
       <c r="F7">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1560,19 +1560,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>0.2113</v>
+        <v>0.5946</v>
       </c>
       <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>0.4054</v>
+      </c>
+      <c r="F8">
         <v>15</v>
-      </c>
-      <c r="D8">
-        <v>71</v>
-      </c>
-      <c r="E8">
-        <v>0.7887</v>
-      </c>
-      <c r="F8">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1580,19 +1580,19 @@
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>0.1452</v>
+        <v>0.5833</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>0.8548</v>
+        <v>0.4167</v>
       </c>
       <c r="F9">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1600,19 +1600,19 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>0.1852</v>
+        <v>0.5405</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>0.8148</v>
+        <v>0.4595</v>
       </c>
       <c r="F10">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1620,19 +1620,19 @@
         <v>2016</v>
       </c>
       <c r="B11">
-        <v>0.2353</v>
+        <v>0.5192</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>0.7647</v>
+        <v>0.4808</v>
       </c>
       <c r="F11">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1640,19 +1640,19 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>0.22</v>
+        <v>0.5833</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12">
-        <v>0.78</v>
+        <v>0.4167</v>
       </c>
       <c r="F12">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1946,19 +1946,19 @@
         <v>2007</v>
       </c>
       <c r="B2">
-        <v>0.45</v>
+        <v>0.5952</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>0.55</v>
+        <v>0.4048</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1966,19 +1966,19 @@
         <v>2008</v>
       </c>
       <c r="B3">
-        <v>0.5263</v>
+        <v>0.5417</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E3">
-        <v>0.4737</v>
+        <v>0.4583</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1986,19 +1986,19 @@
         <v>2009</v>
       </c>
       <c r="B4">
-        <v>0.4706</v>
+        <v>0.5652</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E4">
-        <v>0.5294</v>
+        <v>0.4348</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2006,19 +2006,19 @@
         <v>2010</v>
       </c>
       <c r="B5">
-        <v>0.4762</v>
+        <v>0.5556</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E5">
-        <v>0.5238</v>
+        <v>0.4444</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2026,19 +2026,19 @@
         <v>2011</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.551</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D6">
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <v>0.449</v>
+      </c>
+      <c r="F6">
         <v>22</v>
-      </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2046,19 +2046,19 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.5102</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E7">
-        <v>0.4</v>
+        <v>0.4898</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2066,19 +2066,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>0.5588</v>
+        <v>0.4667</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E8">
-        <v>0.4412</v>
+        <v>0.5333</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2086,19 +2086,19 @@
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>0.4848</v>
+        <v>0.525</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>0.5152</v>
+        <v>0.475</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2106,16 +2106,16 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>0.4857</v>
+        <v>0.4706</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10">
-        <v>0.5143</v>
+        <v>0.5294</v>
       </c>
       <c r="F10">
         <v>18</v>
@@ -2126,19 +2126,19 @@
         <v>2016</v>
       </c>
       <c r="B11">
-        <v>0.4545</v>
+        <v>0.4054</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E11">
-        <v>0.5455</v>
+        <v>0.5946</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2146,19 +2146,19 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.4286</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>0.5714</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2199,19 +2199,19 @@
         <v>2007</v>
       </c>
       <c r="B2">
-        <v>0.5952</v>
+        <v>0.45</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>0.4048</v>
+        <v>0.55</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2219,19 +2219,19 @@
         <v>2008</v>
       </c>
       <c r="B3">
-        <v>0.5417</v>
+        <v>0.5263</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>0.4583</v>
+        <v>0.4737</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2239,19 +2239,19 @@
         <v>2009</v>
       </c>
       <c r="B4">
-        <v>0.5652</v>
+        <v>0.4706</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>0.4348</v>
+        <v>0.5294</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2259,19 +2259,19 @@
         <v>2010</v>
       </c>
       <c r="B5">
-        <v>0.5556</v>
+        <v>0.4762</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>0.4444</v>
+        <v>0.5238</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2279,19 +2279,19 @@
         <v>2011</v>
       </c>
       <c r="B6">
-        <v>0.551</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>0.449</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2299,19 +2299,19 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>0.5102</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>0.4898</v>
+        <v>0.4</v>
       </c>
       <c r="F7">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2319,19 +2319,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>0.4667</v>
+        <v>0.5588</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>0.5333</v>
+        <v>0.4412</v>
       </c>
       <c r="F8">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2339,19 +2339,19 @@
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>0.525</v>
+        <v>0.4848</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E9">
-        <v>0.475</v>
+        <v>0.5152</v>
       </c>
       <c r="F9">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2359,16 +2359,16 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>0.4706</v>
+        <v>0.4857</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10">
-        <v>0.5294</v>
+        <v>0.5143</v>
       </c>
       <c r="F10">
         <v>18</v>
@@ -2379,19 +2379,19 @@
         <v>2016</v>
       </c>
       <c r="B11">
-        <v>0.4054</v>
+        <v>0.4545</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E11">
-        <v>0.5946</v>
+        <v>0.5455</v>
       </c>
       <c r="F11">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2399,19 +2399,19 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>0.4286</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12">
-        <v>0.5714</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/gender.xlsx
+++ b/data/gender.xlsx
@@ -7,22 +7,25 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="HUM-EL" sheetId="1" r:id="rId1"/>
-    <sheet name="HUM-NE" sheetId="2" r:id="rId2"/>
-    <sheet name="HUM-TE" sheetId="3" r:id="rId3"/>
-    <sheet name="NAT-EL" sheetId="4" r:id="rId4"/>
-    <sheet name="NAT-NE" sheetId="5" r:id="rId5"/>
-    <sheet name="NAT-TE" sheetId="6" r:id="rId6"/>
-    <sheet name="SOC-EL" sheetId="7" r:id="rId7"/>
-    <sheet name="SOC-NE" sheetId="8" r:id="rId8"/>
-    <sheet name="SOC-TE" sheetId="9" r:id="rId9"/>
+    <sheet name="ENG-EL" sheetId="1" r:id="rId1"/>
+    <sheet name="ENG-NE" sheetId="2" r:id="rId2"/>
+    <sheet name="ENG-TE" sheetId="3" r:id="rId3"/>
+    <sheet name="HUM-EL" sheetId="4" r:id="rId4"/>
+    <sheet name="HUM-NE" sheetId="5" r:id="rId5"/>
+    <sheet name="HUM-TE" sheetId="6" r:id="rId6"/>
+    <sheet name="NAT-EL" sheetId="7" r:id="rId7"/>
+    <sheet name="NAT-NE" sheetId="8" r:id="rId8"/>
+    <sheet name="NAT-TE" sheetId="9" r:id="rId9"/>
+    <sheet name="SOC-EL" sheetId="10" r:id="rId10"/>
+    <sheet name="SOC-NE" sheetId="11" r:id="rId11"/>
+    <sheet name="SOC-TE" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="6">
   <si>
     <t>% Women</t>
   </si>
@@ -30,13 +33,13 @@
     <t>Women</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>% Men</t>
   </si>
   <si>
     <t>Men</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>Year</t>
@@ -428,19 +431,19 @@
         <v>2007</v>
       </c>
       <c r="B2">
-        <v>0.5059</v>
+        <v>0.2075</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>0.7925</v>
       </c>
       <c r="E2">
-        <v>0.4941</v>
+        <v>42</v>
       </c>
       <c r="F2">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -448,19 +451,19 @@
         <v>2008</v>
       </c>
       <c r="B3">
-        <v>0.4684</v>
+        <v>0.1818</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>0.8182</v>
       </c>
       <c r="E3">
-        <v>0.5316</v>
+        <v>45</v>
       </c>
       <c r="F3">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -468,19 +471,19 @@
         <v>2009</v>
       </c>
       <c r="B4">
-        <v>0.4839</v>
+        <v>0.1765</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>0.8235</v>
       </c>
       <c r="E4">
-        <v>0.5161</v>
+        <v>42</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -488,19 +491,19 @@
         <v>2010</v>
       </c>
       <c r="B5">
-        <v>0.4828</v>
+        <v>0.2045</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>0.7955</v>
       </c>
       <c r="E5">
-        <v>0.5172</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -508,19 +511,19 @@
         <v>2011</v>
       </c>
       <c r="B6">
-        <v>0.4727</v>
+        <v>0.2619</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>0.7381</v>
       </c>
       <c r="E6">
-        <v>0.5273</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -528,19 +531,19 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>0.4259</v>
+        <v>0.2632</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>54</v>
+        <v>0.7368</v>
       </c>
       <c r="E7">
-        <v>0.5741000000000001</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -548,19 +551,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>0.4118</v>
+        <v>0.25</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>0.75</v>
       </c>
       <c r="E8">
-        <v>0.5881999999999999</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -568,19 +571,19 @@
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>0.3636</v>
+        <v>0.1957</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>0.8043</v>
       </c>
       <c r="E9">
-        <v>0.6364</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -588,19 +591,19 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>0.4286</v>
+        <v>0.2157</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>49</v>
+        <v>0.7843</v>
       </c>
       <c r="E10">
-        <v>0.5714</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -608,19 +611,19 @@
         <v>2016</v>
       </c>
       <c r="B11">
-        <v>0.4528</v>
+        <v>0.2041</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>0.7959000000000001</v>
       </c>
       <c r="E11">
-        <v>0.5472</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -628,19 +631,778 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>0.4561</v>
+        <v>0.2182</v>
       </c>
       <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>0.7818000000000001</v>
+      </c>
+      <c r="E12">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B2">
+        <v>0.5952</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>0.4048</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B3">
+        <v>0.5417</v>
+      </c>
+      <c r="C3">
         <v>26</v>
       </c>
+      <c r="D3">
+        <v>0.4583</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B4">
+        <v>0.5652</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>0.4348</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B5">
+        <v>0.5556</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>0.4444</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B6">
+        <v>0.551</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>0.449</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B7">
+        <v>0.5102</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>0.4898</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B8">
+        <v>0.4667</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>0.5333</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B9">
+        <v>0.525</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>0.475</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B10">
+        <v>0.4706</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>0.5294</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B11">
+        <v>0.4054</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>0.5946</v>
+      </c>
+      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B12">
+        <v>0.4286</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
       <c r="D12">
-        <v>57</v>
+        <v>0.5714</v>
       </c>
       <c r="E12">
-        <v>0.5439000000000001</v>
+        <v>24</v>
       </c>
       <c r="F12">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B2">
+        <v>0.45</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>0.55</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B3">
+        <v>0.5263</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0.4737</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B4">
+        <v>0.4706</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0.5294</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B5">
+        <v>0.4762</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.5238</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B8">
+        <v>0.5588</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>0.4412</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B9">
+        <v>0.4848</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>0.5152</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B10">
+        <v>0.4857</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>0.5143</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B11">
+        <v>0.4545</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0.5455</v>
+      </c>
+      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B2">
+        <v>0.2389</v>
+      </c>
+      <c r="C2">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>0.7611</v>
+      </c>
+      <c r="E2">
+        <v>86</v>
+      </c>
+      <c r="F2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B3">
+        <v>0.2564</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>0.7436</v>
+      </c>
+      <c r="E3">
+        <v>87</v>
+      </c>
+      <c r="F3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B4">
+        <v>0.2541</v>
+      </c>
+      <c r="C4">
         <v>31</v>
+      </c>
+      <c r="D4">
+        <v>0.7459</v>
+      </c>
+      <c r="E4">
+        <v>91</v>
+      </c>
+      <c r="F4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B5">
+        <v>0.2645</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>0.7355</v>
+      </c>
+      <c r="E5">
+        <v>89</v>
+      </c>
+      <c r="F5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B6">
+        <v>0.2459</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>0.7541</v>
+      </c>
+      <c r="E6">
+        <v>92</v>
+      </c>
+      <c r="F6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0.75</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B8">
+        <v>0.2541</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>0.7459</v>
+      </c>
+      <c r="E8">
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B9">
+        <v>0.2742</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>0.7258</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="F9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B10">
+        <v>0.28</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>0.72</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+      <c r="F10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B11">
+        <v>0.2891</v>
+      </c>
+      <c r="C11">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>0.7109</v>
+      </c>
+      <c r="E11">
+        <v>91</v>
+      </c>
+      <c r="F11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B12">
+        <v>0.2977</v>
+      </c>
+      <c r="C12">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>0.7023</v>
+      </c>
+      <c r="E12">
+        <v>92</v>
+      </c>
+      <c r="F12">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -681,19 +1443,19 @@
         <v>2007</v>
       </c>
       <c r="B2">
-        <v>0.6556999999999999</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.3443</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -701,19 +1463,19 @@
         <v>2008</v>
       </c>
       <c r="B3">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.36</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -721,19 +1483,19 @@
         <v>2009</v>
       </c>
       <c r="B4">
-        <v>0.5982</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.4018</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -741,19 +1503,19 @@
         <v>2010</v>
       </c>
       <c r="B5">
-        <v>0.6471</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.3529</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -761,19 +1523,19 @@
         <v>2011</v>
       </c>
       <c r="B6">
-        <v>0.6405999999999999</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.3594</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -781,19 +1543,19 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>0.635</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.365</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -801,19 +1563,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>0.6395</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.3605</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -821,19 +1583,19 @@
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>0.6481</v>
+        <v>0.08</v>
       </c>
       <c r="C9">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>162</v>
+        <v>0.92</v>
       </c>
       <c r="E9">
-        <v>0.3519</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -841,19 +1603,19 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>0.6074000000000001</v>
+        <v>0.1304</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>163</v>
+        <v>0.8696</v>
       </c>
       <c r="E10">
-        <v>0.3926</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -861,19 +1623,19 @@
         <v>2016</v>
       </c>
       <c r="B11">
-        <v>0.5523</v>
+        <v>0.1304</v>
       </c>
       <c r="C11">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>172</v>
+        <v>0.8696</v>
       </c>
       <c r="E11">
-        <v>0.4477</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -881,19 +1643,19 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>0.6153999999999999</v>
+        <v>0.1111</v>
       </c>
       <c r="C12">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>169</v>
+        <v>0.8889</v>
       </c>
       <c r="E12">
-        <v>0.3846</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -934,19 +1696,19 @@
         <v>2007</v>
       </c>
       <c r="B2">
-        <v>0.3607</v>
+        <v>0.0638</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>0.9362</v>
       </c>
       <c r="E2">
-        <v>0.6393</v>
+        <v>88</v>
       </c>
       <c r="F2">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -954,19 +1716,19 @@
         <v>2008</v>
       </c>
       <c r="B3">
-        <v>0.3835</v>
+        <v>0.06</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>133</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E3">
-        <v>0.6165</v>
+        <v>94</v>
       </c>
       <c r="F3">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -974,19 +1736,19 @@
         <v>2009</v>
       </c>
       <c r="B4">
-        <v>0.3759</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="C4">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>141</v>
+        <v>0.9252</v>
       </c>
       <c r="E4">
-        <v>0.6241</v>
+        <v>99</v>
       </c>
       <c r="F4">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -994,19 +1756,19 @@
         <v>2010</v>
       </c>
       <c r="B5">
-        <v>0.4</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>135</v>
+        <v>0.9091</v>
       </c>
       <c r="E5">
-        <v>0.6</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>81</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1014,19 +1776,19 @@
         <v>2011</v>
       </c>
       <c r="B6">
-        <v>0.3929</v>
+        <v>0.094</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>140</v>
+        <v>0.906</v>
       </c>
       <c r="E6">
-        <v>0.6071</v>
+        <v>106</v>
       </c>
       <c r="F6">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1034,19 +1796,19 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>0.3944</v>
+        <v>0.1111</v>
       </c>
       <c r="C7">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>142</v>
+        <v>0.8889</v>
       </c>
       <c r="E7">
-        <v>0.6056</v>
+        <v>112</v>
       </c>
       <c r="F7">
-        <v>86</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1054,19 +1816,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>0.3946</v>
+        <v>0.1212</v>
       </c>
       <c r="C8">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>147</v>
+        <v>0.8788</v>
       </c>
       <c r="E8">
-        <v>0.6054</v>
+        <v>116</v>
       </c>
       <c r="F8">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1074,19 +1836,19 @@
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>0.3907</v>
+        <v>0.1385</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>151</v>
+        <v>0.8615</v>
       </c>
       <c r="E9">
-        <v>0.6093</v>
+        <v>112</v>
       </c>
       <c r="F9">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1094,19 +1856,19 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>0.3947</v>
+        <v>0.1353</v>
       </c>
       <c r="C10">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>152</v>
+        <v>0.8647</v>
       </c>
       <c r="E10">
-        <v>0.6052999999999999</v>
+        <v>115</v>
       </c>
       <c r="F10">
-        <v>92</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1114,19 +1876,19 @@
         <v>2016</v>
       </c>
       <c r="B11">
-        <v>0.4013</v>
+        <v>0.1295</v>
       </c>
       <c r="C11">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>152</v>
+        <v>0.8705000000000001</v>
       </c>
       <c r="E11">
-        <v>0.5987</v>
+        <v>121</v>
       </c>
       <c r="F11">
-        <v>91</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1134,19 +1896,19 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>0.4183</v>
+        <v>0.1377</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>153</v>
+        <v>0.8623</v>
       </c>
       <c r="E12">
-        <v>0.5817</v>
+        <v>119</v>
       </c>
       <c r="F12">
-        <v>89</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1187,19 +1949,19 @@
         <v>2007</v>
       </c>
       <c r="B2">
-        <v>0.2833</v>
+        <v>0.5059</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>0.4941</v>
       </c>
       <c r="E2">
-        <v>0.7167</v>
+        <v>42</v>
       </c>
       <c r="F2">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1207,19 +1969,19 @@
         <v>2008</v>
       </c>
       <c r="B3">
-        <v>0.2656</v>
+        <v>0.4684</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>64</v>
+        <v>0.5316</v>
       </c>
       <c r="E3">
-        <v>0.7344000000000001</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1227,19 +1989,19 @@
         <v>2009</v>
       </c>
       <c r="B4">
-        <v>0.2969</v>
+        <v>0.4839</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>0.5161</v>
       </c>
       <c r="E4">
-        <v>0.7030999999999999</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1247,19 +2009,19 @@
         <v>2010</v>
       </c>
       <c r="B5">
-        <v>0.2985</v>
+        <v>0.4828</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>0.5172</v>
       </c>
       <c r="E5">
-        <v>0.7015</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1267,19 +2029,19 @@
         <v>2011</v>
       </c>
       <c r="B6">
-        <v>0.3239</v>
+        <v>0.4727</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>71</v>
+        <v>0.5273</v>
       </c>
       <c r="E6">
-        <v>0.6761</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1287,19 +2049,19 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>0.2609</v>
+        <v>0.4259</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>69</v>
+        <v>0.5741000000000001</v>
       </c>
       <c r="E7">
-        <v>0.7391</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1307,19 +2069,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>0.2113</v>
+        <v>0.4118</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>71</v>
+        <v>0.5881999999999999</v>
       </c>
       <c r="E8">
-        <v>0.7887</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1327,19 +2089,19 @@
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>0.1452</v>
+        <v>0.3636</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>62</v>
+        <v>0.6364</v>
       </c>
       <c r="E9">
-        <v>0.8548</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1347,19 +2109,19 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>0.1852</v>
+        <v>0.4286</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>54</v>
+        <v>0.5714</v>
       </c>
       <c r="E10">
-        <v>0.8148</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1367,19 +2129,19 @@
         <v>2016</v>
       </c>
       <c r="B11">
-        <v>0.2353</v>
+        <v>0.4528</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>0.5472</v>
       </c>
       <c r="E11">
-        <v>0.7647</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1387,19 +2149,19 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>0.22</v>
+        <v>0.4561</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>0.5439000000000001</v>
       </c>
       <c r="E12">
-        <v>0.78</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1440,19 +2202,19 @@
         <v>2007</v>
       </c>
       <c r="B2">
-        <v>0.3636</v>
+        <v>0.6556999999999999</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>0.3443</v>
       </c>
       <c r="E2">
-        <v>0.6364</v>
+        <v>42</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1460,19 +2222,19 @@
         <v>2008</v>
       </c>
       <c r="B3">
-        <v>0.3684</v>
+        <v>0.64</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>0.36</v>
       </c>
       <c r="E3">
-        <v>0.6316000000000001</v>
+        <v>45</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1480,19 +2242,19 @@
         <v>2009</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.5982</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>0.4018</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1500,19 +2262,19 @@
         <v>2010</v>
       </c>
       <c r="B5">
-        <v>0.5217000000000001</v>
+        <v>0.6471</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>0.3529</v>
       </c>
       <c r="E5">
-        <v>0.4783</v>
+        <v>42</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1520,19 +2282,19 @@
         <v>2011</v>
       </c>
       <c r="B6">
-        <v>0.6563</v>
+        <v>0.6405999999999999</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>0.3594</v>
       </c>
       <c r="E6">
-        <v>0.3438</v>
+        <v>46</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1540,19 +2302,19 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>0.5676</v>
+        <v>0.635</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>0.365</v>
       </c>
       <c r="E7">
-        <v>0.4324</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1560,19 +2322,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>0.5946</v>
+        <v>0.6395</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>0.3605</v>
       </c>
       <c r="E8">
-        <v>0.4054</v>
+        <v>53</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1580,19 +2342,19 @@
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>0.5833</v>
+        <v>0.6481</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>0.3519</v>
       </c>
       <c r="E9">
-        <v>0.4167</v>
+        <v>57</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1600,19 +2362,19 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>0.5405</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>0.3926</v>
       </c>
       <c r="E10">
-        <v>0.4595</v>
+        <v>64</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1620,19 +2382,19 @@
         <v>2016</v>
       </c>
       <c r="B11">
-        <v>0.5192</v>
+        <v>0.5523</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>0.4477</v>
       </c>
       <c r="E11">
-        <v>0.4808</v>
+        <v>77</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1640,19 +2402,19 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>0.5833</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>0.3846</v>
       </c>
       <c r="E12">
-        <v>0.4167</v>
+        <v>65</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1693,19 +2455,19 @@
         <v>2007</v>
       </c>
       <c r="B2">
-        <v>0.125</v>
+        <v>0.3607</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>136</v>
+        <v>0.6393</v>
       </c>
       <c r="E2">
-        <v>0.875</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1713,19 +2475,19 @@
         <v>2008</v>
       </c>
       <c r="B3">
-        <v>0.1397</v>
+        <v>0.3835</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>136</v>
+        <v>0.6165</v>
       </c>
       <c r="E3">
-        <v>0.8603</v>
+        <v>82</v>
       </c>
       <c r="F3">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1733,19 +2495,19 @@
         <v>2009</v>
       </c>
       <c r="B4">
-        <v>0.1357</v>
+        <v>0.3759</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>140</v>
+        <v>0.6241</v>
       </c>
       <c r="E4">
-        <v>0.8643</v>
+        <v>88</v>
       </c>
       <c r="F4">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1753,19 +2515,19 @@
         <v>2010</v>
       </c>
       <c r="B5">
-        <v>0.1429</v>
+        <v>0.4</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>140</v>
+        <v>0.6</v>
       </c>
       <c r="E5">
-        <v>0.8571</v>
+        <v>81</v>
       </c>
       <c r="F5">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1773,19 +2535,19 @@
         <v>2011</v>
       </c>
       <c r="B6">
-        <v>0.1469</v>
+        <v>0.3929</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>143</v>
+        <v>0.6071</v>
       </c>
       <c r="E6">
-        <v>0.8531</v>
+        <v>85</v>
       </c>
       <c r="F6">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1793,19 +2555,19 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>0.1622</v>
+        <v>0.3944</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D7">
-        <v>148</v>
+        <v>0.6056</v>
       </c>
       <c r="E7">
-        <v>0.8378</v>
+        <v>86</v>
       </c>
       <c r="F7">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1813,19 +2575,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>0.1935</v>
+        <v>0.3946</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>155</v>
+        <v>0.6054</v>
       </c>
       <c r="E8">
-        <v>0.8065</v>
+        <v>89</v>
       </c>
       <c r="F8">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1833,19 +2595,19 @@
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>0.2099</v>
+        <v>0.3907</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>162</v>
+        <v>0.6093</v>
       </c>
       <c r="E9">
-        <v>0.7901</v>
+        <v>92</v>
       </c>
       <c r="F9">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1853,19 +2615,19 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>0.205</v>
+        <v>0.3947</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>161</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="E10">
-        <v>0.795</v>
+        <v>92</v>
       </c>
       <c r="F10">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1873,19 +2635,19 @@
         <v>2016</v>
       </c>
       <c r="B11">
-        <v>0.2061</v>
+        <v>0.4013</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D11">
-        <v>165</v>
+        <v>0.5987</v>
       </c>
       <c r="E11">
-        <v>0.7939000000000001</v>
+        <v>91</v>
       </c>
       <c r="F11">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1893,19 +2655,19 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>0.2139</v>
+        <v>0.4183</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D12">
-        <v>173</v>
+        <v>0.5817</v>
       </c>
       <c r="E12">
-        <v>0.7861</v>
+        <v>89</v>
       </c>
       <c r="F12">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1946,19 +2708,19 @@
         <v>2007</v>
       </c>
       <c r="B2">
-        <v>0.5952</v>
+        <v>0.2833</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>0.7167</v>
       </c>
       <c r="E2">
-        <v>0.4048</v>
+        <v>43</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1966,19 +2728,19 @@
         <v>2008</v>
       </c>
       <c r="B3">
-        <v>0.5417</v>
+        <v>0.2656</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>0.7344000000000001</v>
       </c>
       <c r="E3">
-        <v>0.4583</v>
+        <v>47</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1986,19 +2748,19 @@
         <v>2009</v>
       </c>
       <c r="B4">
-        <v>0.5652</v>
+        <v>0.2969</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>0.7030999999999999</v>
       </c>
       <c r="E4">
-        <v>0.4348</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2006,19 +2768,19 @@
         <v>2010</v>
       </c>
       <c r="B5">
-        <v>0.5556</v>
+        <v>0.2985</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>0.7015</v>
       </c>
       <c r="E5">
-        <v>0.4444</v>
+        <v>47</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2026,19 +2788,19 @@
         <v>2011</v>
       </c>
       <c r="B6">
-        <v>0.551</v>
+        <v>0.3239</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>0.6761</v>
       </c>
       <c r="E6">
-        <v>0.449</v>
+        <v>48</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2046,19 +2808,19 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>0.5102</v>
+        <v>0.2609</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>0.7391</v>
       </c>
       <c r="E7">
-        <v>0.4898</v>
+        <v>51</v>
       </c>
       <c r="F7">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2066,19 +2828,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>0.4667</v>
+        <v>0.2113</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>0.7887</v>
       </c>
       <c r="E8">
-        <v>0.5333</v>
+        <v>56</v>
       </c>
       <c r="F8">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2086,19 +2848,19 @@
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>0.525</v>
+        <v>0.1452</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>0.8548</v>
       </c>
       <c r="E9">
-        <v>0.475</v>
+        <v>53</v>
       </c>
       <c r="F9">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2106,19 +2868,19 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>0.4706</v>
+        <v>0.1852</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>0.8148</v>
       </c>
       <c r="E10">
-        <v>0.5294</v>
+        <v>44</v>
       </c>
       <c r="F10">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2126,19 +2888,19 @@
         <v>2016</v>
       </c>
       <c r="B11">
-        <v>0.4054</v>
+        <v>0.2353</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>0.7647</v>
       </c>
       <c r="E11">
-        <v>0.5946</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2146,19 +2908,19 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>0.4286</v>
+        <v>0.22</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>42</v>
+        <v>0.78</v>
       </c>
       <c r="E12">
-        <v>0.5714</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2199,19 +2961,19 @@
         <v>2007</v>
       </c>
       <c r="B2">
-        <v>0.45</v>
+        <v>0.3636</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>0.6364</v>
       </c>
       <c r="E2">
-        <v>0.55</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2219,19 +2981,19 @@
         <v>2008</v>
       </c>
       <c r="B3">
-        <v>0.5263</v>
+        <v>0.3684</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3">
+        <v>0.6316000000000001</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
         <v>19</v>
-      </c>
-      <c r="E3">
-        <v>0.4737</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2239,19 +3001,19 @@
         <v>2009</v>
       </c>
       <c r="B4">
-        <v>0.4706</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0.5294</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2259,19 +3021,19 @@
         <v>2010</v>
       </c>
       <c r="B5">
-        <v>0.4762</v>
+        <v>0.5217000000000001</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>0.4783</v>
       </c>
       <c r="E5">
-        <v>0.5238</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2279,19 +3041,19 @@
         <v>2011</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.6563</v>
       </c>
       <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>0.3438</v>
+      </c>
+      <c r="E6">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
       <c r="F6">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2299,19 +3061,19 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.5676</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>0.4324</v>
       </c>
       <c r="E7">
-        <v>0.4</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2319,19 +3081,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>0.5588</v>
+        <v>0.5946</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>0.4054</v>
       </c>
       <c r="E8">
-        <v>0.4412</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2339,19 +3101,19 @@
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>0.4848</v>
+        <v>0.5833</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>0.4167</v>
       </c>
       <c r="E9">
-        <v>0.5152</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2359,19 +3121,19 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>0.4857</v>
+        <v>0.5405</v>
       </c>
       <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0.4595</v>
+      </c>
+      <c r="E10">
         <v>17</v>
       </c>
-      <c r="D10">
-        <v>35</v>
-      </c>
-      <c r="E10">
-        <v>0.5143</v>
-      </c>
       <c r="F10">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2379,19 +3141,19 @@
         <v>2016</v>
       </c>
       <c r="B11">
-        <v>0.4545</v>
+        <v>0.5192</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>0.4808</v>
       </c>
       <c r="E11">
-        <v>0.5455</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2399,19 +3161,19 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0.5833</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>0.4167</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2452,19 +3214,19 @@
         <v>2007</v>
       </c>
       <c r="B2">
-        <v>0.2389</v>
+        <v>0.125</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>113</v>
+        <v>0.875</v>
       </c>
       <c r="E2">
-        <v>0.7611</v>
+        <v>119</v>
       </c>
       <c r="F2">
-        <v>86</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2472,19 +3234,19 @@
         <v>2008</v>
       </c>
       <c r="B3">
-        <v>0.2564</v>
+        <v>0.1397</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D3">
+        <v>0.8603</v>
+      </c>
+      <c r="E3">
         <v>117</v>
       </c>
-      <c r="E3">
-        <v>0.7436</v>
-      </c>
       <c r="F3">
-        <v>87</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2492,19 +3254,19 @@
         <v>2009</v>
       </c>
       <c r="B4">
-        <v>0.2541</v>
+        <v>0.1357</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>122</v>
+        <v>0.8643</v>
       </c>
       <c r="E4">
-        <v>0.7459</v>
+        <v>121</v>
       </c>
       <c r="F4">
-        <v>91</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2512,19 +3274,19 @@
         <v>2010</v>
       </c>
       <c r="B5">
-        <v>0.2645</v>
+        <v>0.1429</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>121</v>
+        <v>0.8571</v>
       </c>
       <c r="E5">
-        <v>0.7355</v>
+        <v>120</v>
       </c>
       <c r="F5">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2532,19 +3294,19 @@
         <v>2011</v>
       </c>
       <c r="B6">
-        <v>0.2459</v>
+        <v>0.1469</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D6">
+        <v>0.8531</v>
+      </c>
+      <c r="E6">
         <v>122</v>
       </c>
-      <c r="E6">
-        <v>0.7541</v>
-      </c>
       <c r="F6">
-        <v>92</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2552,19 +3314,19 @@
         <v>2012</v>
       </c>
       <c r="B7">
-        <v>0.25</v>
+        <v>0.1622</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>120</v>
+        <v>0.8378</v>
       </c>
       <c r="E7">
-        <v>0.75</v>
+        <v>124</v>
       </c>
       <c r="F7">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2572,19 +3334,19 @@
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>0.2541</v>
+        <v>0.1935</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>122</v>
+        <v>0.8065</v>
       </c>
       <c r="E8">
-        <v>0.7459</v>
+        <v>125</v>
       </c>
       <c r="F8">
-        <v>91</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2592,19 +3354,19 @@
         <v>2014</v>
       </c>
       <c r="B9">
-        <v>0.2742</v>
+        <v>0.2099</v>
       </c>
       <c r="C9">
         <v>34</v>
       </c>
       <c r="D9">
-        <v>124</v>
+        <v>0.7901</v>
       </c>
       <c r="E9">
-        <v>0.7258</v>
+        <v>128</v>
       </c>
       <c r="F9">
-        <v>90</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2612,19 +3374,19 @@
         <v>2015</v>
       </c>
       <c r="B10">
-        <v>0.28</v>
+        <v>0.205</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>125</v>
+        <v>0.795</v>
       </c>
       <c r="E10">
-        <v>0.72</v>
+        <v>128</v>
       </c>
       <c r="F10">
-        <v>90</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2632,19 +3394,19 @@
         <v>2016</v>
       </c>
       <c r="B11">
-        <v>0.2891</v>
+        <v>0.2061</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>128</v>
+        <v>0.7939000000000001</v>
       </c>
       <c r="E11">
-        <v>0.7109</v>
+        <v>131</v>
       </c>
       <c r="F11">
-        <v>91</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2652,19 +3414,19 @@
         <v>2017</v>
       </c>
       <c r="B12">
-        <v>0.2977</v>
+        <v>0.2139</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>131</v>
+        <v>0.7861</v>
       </c>
       <c r="E12">
-        <v>0.7023</v>
+        <v>136</v>
       </c>
       <c r="F12">
-        <v>92</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
